--- a/_pythonscripts/student-converter.xlsx
+++ b/_pythonscripts/student-converter.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a37f0bd66b0f646b/Documents/Website/sajidbuet/sajidbuet.github.io/_pythonscripts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="47" documentId="8_{E1B1F29B-FF7C-4566-8390-17910F632AFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B91A92F6-8360-40FB-B7F8-E9CAE71AE7E7}"/>
+  <xr:revisionPtr revIDLastSave="66" documentId="8_{E1B1F29B-FF7C-4566-8390-17910F632AFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0AFFE5E1-55F2-44F7-A352-7C6407ED055E}"/>
   <bookViews>
     <workbookView xWindow="8770" yWindow="-10910" windowWidth="19420" windowHeight="10300" xr2:uid="{63F17F26-1DAA-4B1E-B2A0-1888AC7E7E57}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
   <si>
     <t>name</t>
   </si>
@@ -96,6 +96,24 @@
   </si>
   <si>
     <t>foldername</t>
+  </si>
+  <si>
+    <t>role</t>
+  </si>
+  <si>
+    <t>Masters Student</t>
+  </si>
+  <si>
+    <t>graduation_year</t>
+  </si>
+  <si>
+    <t>thesis-title</t>
+  </si>
+  <si>
+    <t>user_groups</t>
+  </si>
+  <si>
+    <t>Grad Students</t>
   </si>
 </sst>
 </file>
@@ -977,10 +995,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5C9DCED-BA68-471B-8690-CFC7ED823EDB}">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2:H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -989,12 +1007,13 @@
     <col min="3" max="3" width="27.61328125" customWidth="1"/>
     <col min="4" max="4" width="15.3046875" customWidth="1"/>
     <col min="5" max="5" width="16" customWidth="1"/>
-    <col min="6" max="6" width="87.84375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="32.61328125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.765625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="30.15234375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.765625" customWidth="1"/>
+    <col min="9" max="9" width="30.15234375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -1013,8 +1032,20 @@
       <c r="F1" t="s">
         <v>20</v>
       </c>
+      <c r="G1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J1" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2" s="1">
         <v>600043</v>
       </c>
@@ -1034,8 +1065,14 @@
         <f>B2 &amp; "-" &amp; SUBSTITUTE(TRIM(SUBSTITUTE(C2, ".", "")), " ", "-")</f>
         <v>1024062303-Md-Emad-Hossain-Likhon</v>
       </c>
+      <c r="G2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" t="s">
+        <v>26</v>
+      </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A3" s="1">
         <v>600306</v>
       </c>
@@ -1055,8 +1092,14 @@
         <f t="shared" ref="F3:F11" si="0">B3 &amp; "-" &amp; SUBSTITUTE(TRIM(SUBSTITUTE(C3, ".", "")), " ", "-")</f>
         <v>1024062333-Dipika-Rani-Nath</v>
       </c>
+      <c r="G3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" t="s">
+        <v>26</v>
+      </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A4" s="1">
         <v>600341</v>
       </c>
@@ -1076,8 +1119,14 @@
         <f t="shared" si="0"/>
         <v>1024062339-Subhan-Zawad-Bihan</v>
       </c>
+      <c r="G4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" t="s">
+        <v>26</v>
+      </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A5" s="1">
         <v>600387</v>
       </c>
@@ -1097,8 +1146,14 @@
         <f t="shared" si="0"/>
         <v>1024062129-Md-Tasrif-Prodhan</v>
       </c>
+      <c r="G5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" t="s">
+        <v>26</v>
+      </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A6" s="1">
         <v>600595</v>
       </c>
@@ -1118,8 +1173,14 @@
         <f t="shared" si="0"/>
         <v>1024062144-Tanvir-Ahmed</v>
       </c>
+      <c r="G6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H6" t="s">
+        <v>26</v>
+      </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A7" s="1">
         <v>600640</v>
       </c>
@@ -1139,8 +1200,14 @@
         <f t="shared" si="0"/>
         <v>1024062371-Farzana-Yesmin</v>
       </c>
+      <c r="G7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H7" t="s">
+        <v>26</v>
+      </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A8" s="1">
         <v>600674</v>
       </c>
@@ -1160,8 +1227,14 @@
         <f t="shared" si="0"/>
         <v>1024062374-Junayet-Hossaain</v>
       </c>
+      <c r="G8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H8" t="s">
+        <v>26</v>
+      </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A9" s="1">
         <v>600683</v>
       </c>
@@ -1181,8 +1254,14 @@
         <f t="shared" si="0"/>
         <v>1024062377-Ramisa-Tahsin-Shreya</v>
       </c>
+      <c r="G9" t="s">
+        <v>22</v>
+      </c>
+      <c r="H9" t="s">
+        <v>26</v>
+      </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A10" s="1">
         <v>600934</v>
       </c>
@@ -1202,8 +1281,14 @@
         <f t="shared" si="0"/>
         <v>1024062404-Bokhtiar-Foysol-Himon</v>
       </c>
+      <c r="G10" t="s">
+        <v>22</v>
+      </c>
+      <c r="H10" t="s">
+        <v>26</v>
+      </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A11" s="1">
         <v>600996</v>
       </c>
@@ -1222,6 +1307,12 @@
       <c r="F11" t="str">
         <f t="shared" si="0"/>
         <v>1024062406-Md-Tarique-Habibullah</v>
+      </c>
+      <c r="G11" t="s">
+        <v>22</v>
+      </c>
+      <c r="H11" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
